--- a/va_facility_data_2025-02-20/Fort Smith VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Fort%20Smith%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Fort Smith VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Fort%20Smith%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R0aea985a199c45369f1d1b3a4801aa21"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R577a40fb80c748faa03f7039cd605333"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R64a791ac08dd4c3198a4ee3a89b61a24"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R6f52b0ecc1cd4fdf938bce22d9b2e6ea"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rfaec6cdf33064fc782efaa2328aeb4ee"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R77aedd51a38441559e7c2706bb127b51"/>
   </x:sheets>
 </x:workbook>
 </file>
